--- a/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-7,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>-8,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-1,48%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -0,44</t>
+          <t>-9,29; 7,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 4,43</t>
+          <t>-14,82; 2,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,99</t>
+          <t>-15,22; 1,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,88</t>
+          <t>-11,26; 8,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,75; -0,81</t>
+          <t>-11,09; 10,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 6,21</t>
+          <t>-18,16; 3,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 8,48</t>
+          <t>-18,66; 1,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 7,44</t>
+          <t>-13,05; 10,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-12,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,16%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,04%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-0,2%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 7,92</t>
+          <t>-14,76; -0,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 2,72</t>
+          <t>-10,3; 4,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 1,55</t>
+          <t>-7,32; 5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 8,07</t>
+          <t>-5,7; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 10,5</t>
+          <t>-21,75; -0,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 3,49</t>
+          <t>-13,14; 6,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 1,85</t>
+          <t>-9,56; 8,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 10,3</t>
+          <t>-6,7; 7,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>-19,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-37,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-19,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>-37,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>-3,91%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 11,77</t>
+          <t>-77,35; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 20,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 29,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 16,45</t>
+          <t>-51,15; 35,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 14,05</t>
+          <t>-77,35; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 29,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 47,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 21,71</t>
+          <t>-58,28; 62,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,16%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,04%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-1,56%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 7,92</t>
+          <t>-10,19; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 2,72</t>
+          <t>-12,41; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 1,55</t>
+          <t>-10,3; 11,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 8,07</t>
+          <t>-11,79; 8,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 10,5</t>
+          <t>-11,43; 10,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 3,49</t>
+          <t>-14,75; 9,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 1,85</t>
+          <t>-12,24; 16,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 10,3</t>
+          <t>-13,16; 11,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -0,44</t>
+          <t>-19,56; -0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 4,43</t>
+          <t>-7,02; 10,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,99</t>
+          <t>-12,33; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,88</t>
+          <t>-9,01; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,75; -0,81</t>
+          <t>-23,34; -0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 6,21</t>
+          <t>-9,19; 14,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 8,48</t>
+          <t>-14,89; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 7,44</t>
+          <t>-10,3; 10,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,06%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-0,92%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 0,12</t>
+          <t>-13,84; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,63</t>
+          <t>-17,91; -1,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 2,89</t>
+          <t>-9,01; 8,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,57</t>
+          <t>-7,63; 6,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 0,12</t>
+          <t>-22,38; 5,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 2,29</t>
+          <t>-22,66; -1,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 3,96</t>
+          <t>-12,45; 14,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,7</t>
+          <t>-9,03; 8,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-5,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-7,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-5,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; 0,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 1,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 3,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 4,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-14,42; 0,66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,71; 2,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 4,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 4,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 0,0</t>
+          <t>-72,01; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 35,82</t>
+          <t>-43,02; 37,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 0,0</t>
+          <t>-72,01; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 62,1</t>
+          <t>-47,85; 78,14</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 8,54</t>
+          <t>-9,05; 9,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 7,38</t>
+          <t>-13,23; 7,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 11,97</t>
+          <t>-10,09; 11,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 8,93</t>
+          <t>-11,59; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 10,87</t>
+          <t>-10,37; 11,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 9,55</t>
+          <t>-15,5; 10,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 16,11</t>
+          <t>-11,72; 15,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 11,18</t>
+          <t>-12,79; 10,9</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -0,8</t>
+          <t>-20,3; 0,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 10,12</t>
+          <t>-6,61; 11,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 3,41</t>
+          <t>-12,66; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 8,38</t>
+          <t>-8,8; 8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,34; -0,94</t>
+          <t>-24,29; -0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 14,87</t>
+          <t>-8,44; 16,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 4,62</t>
+          <t>-15,36; 4,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 10,53</t>
+          <t>-10,18; 10,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 3,28</t>
+          <t>-13,75; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -1,24</t>
+          <t>-17,35; -0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 8,92</t>
+          <t>-8,95; 9,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 6,63</t>
+          <t>-8,04; 6,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 5,97</t>
+          <t>-21,9; 7,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,66; -1,83</t>
+          <t>-22,27; -0,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 14,25</t>
+          <t>-12,22; 14,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 8,56</t>
+          <t>-9,39; 8,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 0,66</t>
+          <t>-10,87; -0,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 1,69</t>
+          <t>-8,95; 1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,06</t>
+          <t>-7,77; 2,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,03</t>
+          <t>-5,42; 4,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 0,66</t>
+          <t>-14,96; -0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 2,22</t>
+          <t>-11,52; 2,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 4,2</t>
+          <t>-9,86; 3,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,98</t>
+          <t>-6,36; 5,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>-4,1%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 0,0</t>
+          <t>-77,02; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,02; 37,6</t>
+          <t>-45,53; 37,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,01; 0,0</t>
+          <t>-77,02; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 78,14</t>
+          <t>-52,65; 67,82</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-1,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 9,16</t>
+          <t>-9,65; 9,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 7,83</t>
+          <t>-12,61; 6,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 11,1</t>
+          <t>-11,07; 11,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 8,5</t>
+          <t>-11,45; 9,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 11,37</t>
+          <t>-10,88; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 10,25</t>
+          <t>-14,97; 9,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 15,01</t>
+          <t>-12,9; 15,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,9</t>
+          <t>-13,08; 11,69</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>-0,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 0,13</t>
+          <t>-19,26; 0,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 11,08</t>
+          <t>-6,44; 10,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 3,21</t>
+          <t>-13,29; 2,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 8,54</t>
+          <t>-10,32; 8,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -0,26</t>
+          <t>-22,84; 0,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 16,31</t>
+          <t>-8,21; 15,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 4,31</t>
+          <t>-16,06; 3,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 10,95</t>
+          <t>-12,11; 11,17</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 3,97</t>
+          <t>-13,73; 3,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,35; -0,14</t>
+          <t>-17,11; 0,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 9,27</t>
+          <t>-8,94; 9,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 6,47</t>
+          <t>-7,66; 6,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 7,1</t>
+          <t>-21,81; 5,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -0,46</t>
+          <t>-21,76; 0,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 14,43</t>
+          <t>-11,8; 14,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 8,37</t>
+          <t>-9,0; 9,05</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -0,2</t>
+          <t>-10,68; 0,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 1,58</t>
+          <t>-8,99; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,83</t>
+          <t>-7,57; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,47</t>
+          <t>-5,42; 4,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -0,31</t>
+          <t>-14,6; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 2,17</t>
+          <t>-11,43; 2,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 3,88</t>
+          <t>-9,64; 3,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,62</t>
+          <t>-6,43; 5,69</t>
         </is>
       </c>
     </row>
